--- a/excel/ArmorUnit.xlsx
+++ b/excel/ArmorUnit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Athoic\玩的项目\Config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1018FC8-784A-41AB-A3F0-92F3221644AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F218D6F1-CE9C-41DE-83BF-5841DD6617F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19548" yWindow="3276" windowWidth="17616" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11700" yWindow="4176" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[11,21,31,41,51,61,71]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[12]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,6 +72,10 @@
   </si>
   <si>
     <t>[22]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[11,21,31,41,51,61,81]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +404,7 @@
   <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -446,13 +446,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -460,13 +460,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
